--- a/product/report/report-18.3.2005-18.3.2005.xlsx
+++ b/product/report/report-18.3.2005-18.3.2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>ID</t>
   </si>
@@ -85,7 +85,7 @@
     <t>Takeaway</t>
   </si>
   <si>
-    <t>-145.103683</t>
+    <t>21.000000</t>
   </si>
   <si>
     <t>2021-07-02 09:29:11 +0700 +07</t>
@@ -178,19 +178,25 @@
     <t>2021-07-02 09:33:00 +0700 +07</t>
   </si>
   <si>
-    <t>c3e2obiciaeng9b27p6g</t>
-  </si>
-  <si>
-    <t>Iced Latte</t>
-  </si>
-  <si>
-    <t>6500</t>
-  </si>
-  <si>
-    <t>c3e2obiciaeng9b27p50</t>
-  </si>
-  <si>
-    <t>Cappuccino Frappe</t>
+    <t>kuaygun</t>
+  </si>
+  <si>
+    <t>12300</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>no sugar</t>
+  </si>
+  <si>
+    <t>mocha</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>as sweet as possible</t>
   </si>
   <si>
     <t>c3e2obiciaeng9b27pag</t>
@@ -343,6 +349,57 @@
     <t>2021-07-02 09:56:19 +0700 +07</t>
   </si>
   <si>
+    <t>c3fb6cbcjpl509kpn3vg</t>
+  </si>
+  <si>
+    <t>c3fb643cjpl5cigr32q0</t>
+  </si>
+  <si>
+    <t>c3fb643cjpl5cigr32qg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>154200</t>
+  </si>
+  <si>
+    <t>dine-in</t>
+  </si>
+  <si>
+    <t>2021-07-02 13:33:21 +0700 +07</t>
+  </si>
+  <si>
+    <t>c3fb6vbcjpl509kpn400</t>
+  </si>
+  <si>
+    <t>2021-07-02 13:34:37 +0700 +07</t>
+  </si>
+  <si>
+    <t>c3fbaqjcjpl509kpn40g</t>
+  </si>
+  <si>
+    <t>2021-07-02 13:42:50 +0700 +07</t>
+  </si>
+  <si>
+    <t>c3fbbf3cjpl509kpn410</t>
+  </si>
+  <si>
+    <t>2021-07-02 13:44:12 +0700 +07</t>
+  </si>
+  <si>
+    <t>c3fbbmbcjpl509kpn41g</t>
+  </si>
+  <si>
+    <t>2021-07-02 13:44:41 +0700 +07</t>
+  </si>
+  <si>
+    <t>c3fbeabcjpl509kpn420</t>
+  </si>
+  <si>
+    <t>2021-07-02 13:50:17 +0700 +07</t>
+  </si>
+  <si>
     <t>Item Name</t>
   </si>
   <si>
@@ -754,13 +811,13 @@
     <t>Total Profit</t>
   </si>
   <si>
-    <t>282500</t>
+    <t>1207700</t>
   </si>
   <si>
     <t>38008</t>
   </si>
   <si>
-    <t>244492</t>
+    <t>1169692</t>
   </si>
 </sst>
 </file>
@@ -1079,9 +1136,6 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" max="12581" min="12581" width="40"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1397,19 +1451,19 @@
         <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1444,19 +1498,19 @@
         <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1491,10 +1545,10 @@
         <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>40</v>
@@ -1538,13 +1592,13 @@
         <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>28</v>
@@ -1585,13 +1639,13 @@
         <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>41</v>
@@ -1602,22 +1656,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>21</v>
@@ -1629,22 +1683,22 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1679,19 +1733,19 @@
         <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -1726,10 +1780,10 @@
         <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>40</v>
@@ -1773,13 +1827,13 @@
         <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>28</v>
@@ -1820,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>41</v>
@@ -1837,49 +1891,49 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -1914,19 +1968,19 @@
         <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1961,10 +2015,10 @@
         <v>29</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>40</v>
@@ -2008,13 +2062,13 @@
         <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>28</v>
@@ -2055,13 +2109,13 @@
         <v>29</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>41</v>
@@ -2072,49 +2126,49 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O22" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -2149,19 +2203,19 @@
         <v>29</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -2196,10 +2250,10 @@
         <v>29</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>40</v>
@@ -2243,13 +2297,13 @@
         <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>28</v>
@@ -2260,49 +2314,49 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O26" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -2337,39 +2391,39 @@
         <v>29</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>21</v>
@@ -2381,22 +2435,22 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O28" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -2431,19 +2485,19 @@
         <v>29</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -2478,10 +2532,10 @@
         <v>29</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>40</v>
@@ -2525,13 +2579,13 @@
         <v>29</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>28</v>
@@ -2572,13 +2626,13 @@
         <v>29</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>41</v>
@@ -2589,49 +2643,49 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34">
@@ -2666,19 +2720,19 @@
         <v>29</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
@@ -2713,10 +2767,10 @@
         <v>29</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>40</v>
@@ -2760,13 +2814,13 @@
         <v>29</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>28</v>
@@ -2777,49 +2831,49 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O37" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -2854,19 +2908,19 @@
         <v>29</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -2901,10 +2955,10 @@
         <v>29</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>40</v>
@@ -2918,680 +2972,1244 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>111</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>118</v>
+        <v>58</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="K42" s="1" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>129</v>
+        <v>58</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>178</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>245</v>
+        <v>180</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
